--- a/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 15,17</t>
+          <t>7,22; 15,07</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,13; 43,11</t>
+          <t>31,18; 43,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,07</t>
+          <t>2,98; 8,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 19,96</t>
+          <t>10,73; 19,67</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,31; 37,37</t>
+          <t>25,17; 36,89</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,59</t>
+          <t>5,92; 12,32</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,27</t>
+          <t>9,79; 16,11</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,12; 38,57</t>
+          <t>30,35; 38,45</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,62</t>
+          <t>5,19; 9,29</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,04; 28,86</t>
+          <t>20,94; 28,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,99; 58,1</t>
+          <t>48,98; 58,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,1; 45,15</t>
+          <t>36,01; 44,73</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 16,85</t>
+          <t>9,67; 17,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,23; 39,62</t>
+          <t>30,69; 39,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,34; 60,49</t>
+          <t>51,93; 60,97</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,6; 46,3</t>
+          <t>37,79; 46,44</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,48</t>
+          <t>11,32; 16,36</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,91; 32,84</t>
+          <t>26,96; 33,06</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,37; 58,09</t>
+          <t>51,6; 58,32</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37,71; 44,34</t>
+          <t>38,0; 44,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 15,63</t>
+          <t>11,25; 15,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 20,8</t>
+          <t>12,02; 20,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 20,76</t>
+          <t>12,1; 20,37</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,01; 29,2</t>
+          <t>19,92; 29,21</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 18,96</t>
+          <t>11,39; 19,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 29,98</t>
+          <t>20,97; 30,51</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 18,52</t>
+          <t>10,57; 18,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,72; 38,09</t>
+          <t>27,82; 38,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,25</t>
+          <t>16,41; 23,83</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 24,32</t>
+          <t>17,97; 24,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,6; 18,1</t>
+          <t>12,47; 17,98</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,29; 32,18</t>
+          <t>24,72; 31,81</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,77; 20,23</t>
+          <t>14,91; 20,01</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 15,69</t>
+          <t>9,07; 15,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 35,66</t>
+          <t>27,93; 35,44</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,6; 35,5</t>
+          <t>25,29; 35,77</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 16,78</t>
+          <t>7,19; 16,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,85; 27,39</t>
+          <t>19,01; 27,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,12; 35,56</t>
+          <t>27,73; 35,26</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,0; 43,64</t>
+          <t>33,67; 43,9</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,92; 32,55</t>
+          <t>17,87; 33,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,9; 20,55</t>
+          <t>14,95; 20,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,0; 34,6</t>
+          <t>29,11; 34,31</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,91; 38,12</t>
+          <t>31,18; 38,36</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 23,94</t>
+          <t>13,83; 24,09</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,54; 20,16</t>
+          <t>10,23; 20,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,46; 41,3</t>
+          <t>27,44; 40,86</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,39; 68,29</t>
+          <t>54,95; 68,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,39</t>
+          <t>2,78; 9,05</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,96; 27,81</t>
+          <t>15,08; 26,84</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,69; 42,96</t>
+          <t>29,39; 42,38</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,18; 72,71</t>
+          <t>59,85; 72,82</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,15</t>
+          <t>3,55; 9,26</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,41; 22,0</t>
+          <t>14,23; 22,36</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,38; 39,85</t>
+          <t>30,26; 39,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59,48; 68,66</t>
+          <t>59,29; 68,12</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,77</t>
+          <t>3,85; 7,78</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 26,27</t>
+          <t>15,72; 26,03</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,29; 21,32</t>
+          <t>12,39; 21,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,49; 23,81</t>
+          <t>14,23; 23,63</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,34</t>
+          <t>8,33; 15,73</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,65; 37,74</t>
+          <t>26,7; 37,82</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 20,58</t>
+          <t>11,28; 19,49</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,15; 23,48</t>
+          <t>13,84; 23,53</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,21</t>
+          <t>12,15; 18,9</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,14</t>
+          <t>22,84; 30,67</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,05; 19,44</t>
+          <t>12,97; 19,38</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,17; 22,14</t>
+          <t>14,89; 21,76</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,16; 16,26</t>
+          <t>11,05; 15,93</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 23,61</t>
+          <t>17,04; 23,56</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,03; 24,89</t>
+          <t>18,39; 24,85</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,92; 34,4</t>
+          <t>26,91; 34,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,77; 15,88</t>
+          <t>9,69; 15,65</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,05; 38,59</t>
+          <t>31,01; 38,91</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,67; 27,27</t>
+          <t>20,48; 27,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,96; 37,29</t>
+          <t>29,73; 37,05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 15,3</t>
+          <t>7,23; 15,37</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,09; 30,32</t>
+          <t>24,85; 29,94</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,2; 25,01</t>
+          <t>20,1; 24,97</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,34; 34,58</t>
+          <t>29,17; 34,65</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,49; 14,53</t>
+          <t>9,61; 14,65</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,5; 21,37</t>
+          <t>15,75; 21,57</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,47; 36,57</t>
+          <t>29,66; 36,53</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,6; 36,6</t>
+          <t>29,77; 36,49</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,98</t>
+          <t>15,05; 22,26</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,58; 29,06</t>
+          <t>22,62; 28,85</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,89; 37,62</t>
+          <t>30,95; 37,78</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,48; 36,06</t>
+          <t>29,31; 36,18</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,67; 25,56</t>
+          <t>19,78; 25,57</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,96; 24,33</t>
+          <t>20,05; 24,27</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31,07; 35,92</t>
+          <t>31,08; 36,16</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>30,63; 35,52</t>
+          <t>30,43; 35,37</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,06; 22,76</t>
+          <t>17,89; 22,77</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,44</t>
+          <t>16,7; 19,48</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29,01; 32,17</t>
+          <t>28,8; 32,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,09</t>
+          <t>31,93; 35,24</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,89; 14,57</t>
+          <t>12,05; 14,92</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,32; 29,4</t>
+          <t>26,26; 29,46</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,96; 33,26</t>
+          <t>30,0; 33,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,42</t>
+          <t>34,04; 37,35</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 17,63</t>
+          <t>14,24; 17,55</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,11</t>
+          <t>21,96; 24,13</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29,98; 32,31</t>
+          <t>29,98; 32,26</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>33,44; 35,81</t>
+          <t>33,27; 35,78</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,73; 15,91</t>
+          <t>13,71; 15,79</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,22; 15,07</t>
+          <t>7,7; 15,04</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,18; 43,22</t>
+          <t>31,14; 42,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,73; 19,67</t>
+          <t>10,5; 20,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>25,17; 36,89</t>
+          <t>26,45; 37,54</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>9,79; 16,11</t>
+          <t>10,04; 16,23</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,35; 38,45</t>
+          <t>30,03; 38,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,94; 28,87</t>
+          <t>20,69; 28,65</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,98; 58,41</t>
+          <t>49,17; 58,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,01; 44,73</t>
+          <t>35,58; 44,77</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,69; 39,66</t>
+          <t>30,6; 39,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,93; 60,97</t>
+          <t>51,44; 60,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,79; 46,44</t>
+          <t>37,42; 46,48</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,96; 33,06</t>
+          <t>26,92; 32,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,6; 58,32</t>
+          <t>51,2; 57,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>38,0; 44,06</t>
+          <t>37,86; 44,07</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,02; 20,82</t>
+          <t>12,21; 20,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,1; 20,37</t>
+          <t>12,15; 20,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,92; 29,21</t>
+          <t>19,54; 29,02</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,97; 30,51</t>
+          <t>20,92; 30,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,57; 18,52</t>
+          <t>10,8; 18,67</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,82; 38,0</t>
+          <t>27,98; 38,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,97; 24,4</t>
+          <t>17,84; 24,4</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 17,98</t>
+          <t>12,47; 18,36</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24,72; 31,81</t>
+          <t>25,37; 32,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,07; 15,5</t>
+          <t>9,36; 16,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,93; 35,44</t>
+          <t>28,26; 35,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,29; 35,77</t>
+          <t>25,84; 35,28</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,01; 27,79</t>
+          <t>19,19; 27,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,73; 35,26</t>
+          <t>28,48; 35,58</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,67; 43,9</t>
+          <t>34,28; 44,15</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,95; 20,59</t>
+          <t>15,18; 20,72</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,11; 34,31</t>
+          <t>29,08; 34,43</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,18; 38,36</t>
+          <t>31,34; 38,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,23; 20,32</t>
+          <t>10,28; 20,61</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,44; 40,86</t>
+          <t>27,2; 40,81</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,95; 68,59</t>
+          <t>54,43; 67,47</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,08; 26,84</t>
+          <t>15,42; 27,49</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,39; 42,38</t>
+          <t>29,95; 42,51</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>59,85; 72,82</t>
+          <t>60,55; 72,84</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,23; 22,36</t>
+          <t>14,5; 21,85</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,26; 39,85</t>
+          <t>30,39; 39,36</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59,29; 68,12</t>
+          <t>58,7; 68,27</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,72; 26,03</t>
+          <t>15,89; 26,4</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,39; 21,32</t>
+          <t>12,37; 21,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>14,23; 23,63</t>
+          <t>13,9; 23,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,7; 37,82</t>
+          <t>26,64; 38,85</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,28; 19,49</t>
+          <t>11,35; 20,27</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,84; 23,53</t>
+          <t>13,81; 23,59</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,84; 30,67</t>
+          <t>22,86; 30,61</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,97; 19,38</t>
+          <t>12,83; 19,13</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>14,89; 21,76</t>
+          <t>15,23; 22,16</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,04; 23,56</t>
+          <t>17,04; 23,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,39; 24,85</t>
+          <t>17,87; 24,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,91; 34,77</t>
+          <t>27,07; 34,55</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,01; 38,91</t>
+          <t>30,71; 38,87</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,48; 27,21</t>
+          <t>20,29; 27,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,73; 37,05</t>
+          <t>29,87; 36,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,85; 29,94</t>
+          <t>25,12; 29,99</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,1; 24,97</t>
+          <t>20,19; 25,04</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,17; 34,65</t>
+          <t>29,51; 34,59</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,75; 21,57</t>
+          <t>15,91; 21,45</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,66; 36,53</t>
+          <t>29,91; 36,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,77; 36,49</t>
+          <t>29,7; 36,57</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,62; 28,85</t>
+          <t>22,11; 28,83</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,95; 37,78</t>
+          <t>30,58; 37,44</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,31; 36,18</t>
+          <t>29,66; 36,34</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>20,05; 24,27</t>
+          <t>19,8; 24,45</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31,08; 36,16</t>
+          <t>31,2; 36,12</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>30,43; 35,37</t>
+          <t>30,74; 35,57</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,7; 19,48</t>
+          <t>16,91; 19,71</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>28,8; 32,3</t>
+          <t>29,11; 32,38</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>31,93; 35,24</t>
+          <t>32,09; 35,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,26; 29,46</t>
+          <t>26,18; 29,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,0; 33,08</t>
+          <t>30,08; 33,29</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,04; 37,35</t>
+          <t>34,0; 37,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,96; 24,13</t>
+          <t>21,97; 24,07</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29,98; 32,26</t>
+          <t>29,93; 32,28</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>33,27; 35,78</t>
+          <t>33,4; 35,83</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,7; 15,04</t>
+          <t>7,42; 15,17</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,14; 42,38</t>
+          <t>31,13; 43,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,98; 8,08</t>
+          <t>3,2; 8,07</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,5; 20,14</t>
+          <t>10,67; 19,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,45; 37,54</t>
+          <t>26,31; 37,37</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,92; 12,32</t>
+          <t>6,02; 12,59</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,04; 16,23</t>
+          <t>10,15; 16,27</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,03; 38,62</t>
+          <t>30,12; 38,57</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,19; 9,29</t>
+          <t>5,34; 9,62</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,69; 28,65</t>
+          <t>21,04; 28,86</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>49,17; 58,15</t>
+          <t>48,99; 58,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>35,58; 44,77</t>
+          <t>36,1; 45,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,67; 17,22</t>
+          <t>9,55; 16,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,6; 39,04</t>
+          <t>31,23; 39,62</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,44; 60,62</t>
+          <t>51,34; 60,49</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,42; 46,48</t>
+          <t>37,6; 46,3</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,32; 16,36</t>
+          <t>11,05; 16,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,92; 32,63</t>
+          <t>26,91; 32,84</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,2; 57,78</t>
+          <t>51,37; 58,09</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37,86; 44,07</t>
+          <t>37,71; 44,34</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 15,63</t>
+          <t>11,34; 15,63</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,21; 20,96</t>
+          <t>12,3; 20,8</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 20,19</t>
+          <t>12,15; 20,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19,54; 29,02</t>
+          <t>20,01; 29,2</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,39; 19,29</t>
+          <t>11,19; 18,96</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,92; 30,99</t>
+          <t>20,89; 29,98</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,8; 18,67</t>
+          <t>10,68; 18,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,98; 38,41</t>
+          <t>27,72; 38,09</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,41; 23,83</t>
+          <t>15,82; 23,25</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,84; 24,4</t>
+          <t>18,11; 24,32</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,47; 18,36</t>
+          <t>12,6; 18,1</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,37; 32,41</t>
+          <t>25,29; 32,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,91; 20,01</t>
+          <t>14,77; 20,23</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,36; 16,17</t>
+          <t>8,63; 15,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>28,26; 35,42</t>
+          <t>27,82; 35,66</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,84; 35,28</t>
+          <t>25,6; 35,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,19; 16,59</t>
+          <t>7,18; 16,78</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>19,19; 27,34</t>
+          <t>18,85; 27,39</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,48; 35,58</t>
+          <t>28,12; 35,56</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>34,28; 44,15</t>
+          <t>33,0; 43,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,87; 33,54</t>
+          <t>17,92; 32,55</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>15,18; 20,72</t>
+          <t>14,9; 20,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,08; 34,43</t>
+          <t>29,0; 34,6</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,34; 38,49</t>
+          <t>30,91; 38,12</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>13,83; 24,09</t>
+          <t>14,42; 23,94</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,28; 20,61</t>
+          <t>10,54; 20,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,2; 40,81</t>
+          <t>27,46; 41,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,43; 67,47</t>
+          <t>54,39; 68,29</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,78; 9,05</t>
+          <t>2,91; 9,39</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,42; 27,49</t>
+          <t>15,96; 27,81</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,95; 42,51</t>
+          <t>29,69; 42,96</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,55; 72,84</t>
+          <t>60,18; 72,71</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,55; 9,26</t>
+          <t>3,47; 9,15</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,5; 21,85</t>
+          <t>14,41; 22,0</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,39; 39,36</t>
+          <t>30,38; 39,85</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>58,7; 68,27</t>
+          <t>59,48; 68,66</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,85; 7,78</t>
+          <t>3,81; 7,77</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>15,89; 26,4</t>
+          <t>16,0; 26,27</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,37; 21,87</t>
+          <t>12,29; 21,32</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,9; 23,69</t>
+          <t>13,49; 23,81</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,33; 15,73</t>
+          <t>8,72; 16,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,64; 38,85</t>
+          <t>26,65; 37,74</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,35; 20,27</t>
+          <t>11,17; 20,58</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>13,81; 23,59</t>
+          <t>14,15; 23,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>12,15; 18,9</t>
+          <t>11,97; 19,21</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,86; 30,61</t>
+          <t>22,68; 30,14</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>12,83; 19,13</t>
+          <t>13,05; 19,44</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,23; 22,16</t>
+          <t>15,17; 22,14</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,05; 15,93</t>
+          <t>11,16; 16,26</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,04; 23,85</t>
+          <t>17,03; 23,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>17,87; 24,71</t>
+          <t>18,03; 24,89</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>27,07; 34,55</t>
+          <t>26,92; 34,4</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,69; 15,65</t>
+          <t>9,77; 15,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>30,71; 38,87</t>
+          <t>31,05; 38,59</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,29; 27,12</t>
+          <t>20,67; 27,27</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,87; 36,97</t>
+          <t>29,96; 37,29</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>7,23; 15,37</t>
+          <t>6,77; 15,3</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,12; 29,99</t>
+          <t>25,09; 30,32</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,19; 25,04</t>
+          <t>20,2; 25,01</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,51; 34,59</t>
+          <t>29,34; 34,58</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,61; 14,65</t>
+          <t>9,49; 14,53</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,91; 21,45</t>
+          <t>15,5; 21,37</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,91; 36,62</t>
+          <t>29,47; 36,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,7; 36,57</t>
+          <t>29,6; 36,6</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,05; 22,26</t>
+          <t>15,16; 21,98</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,11; 28,83</t>
+          <t>22,58; 29,06</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,58; 37,44</t>
+          <t>30,89; 37,62</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,66; 36,34</t>
+          <t>29,48; 36,06</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,78; 25,57</t>
+          <t>19,67; 25,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,8; 24,45</t>
+          <t>19,96; 24,33</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31,2; 36,12</t>
+          <t>31,07; 35,92</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>30,74; 35,57</t>
+          <t>30,63; 35,52</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,89; 22,77</t>
+          <t>18,06; 22,76</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,91; 19,71</t>
+          <t>16,71; 19,44</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29,11; 32,38</t>
+          <t>29,01; 32,17</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>32,09; 35,35</t>
+          <t>31,84; 35,09</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12,05; 14,92</t>
+          <t>11,89; 14,57</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,18; 29,4</t>
+          <t>26,32; 29,4</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>30,08; 33,29</t>
+          <t>29,96; 33,26</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,0; 37,4</t>
+          <t>34,08; 37,42</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,24; 17,55</t>
+          <t>14,19; 17,63</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>21,97; 24,07</t>
+          <t>22,0; 24,11</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29,93; 32,28</t>
+          <t>29,98; 32,31</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>33,4; 35,83</t>
+          <t>33,44; 35,81</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,71; 15,79</t>
+          <t>13,73; 15,91</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,43%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>8,53%</t>
+          <t>9,27%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>39,58%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>7,08%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,9; 45,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,2; 8,07</t>
+          <t>2,97; 7,98</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>33,58; 45,98</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,02; 12,59</t>
+          <t>6,31; 15,57</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>35,6; 43,96</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,34; 9,62</t>
+          <t>5,23; 10,28</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>12,91%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>13,67%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,31%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,55; 16,85</t>
+          <t>9,56; 17,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,05; 16,48</t>
+          <t>11,13; 16,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 15,63</t>
+          <t>11,3; 15,75</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>14,98%</t>
+          <t>15,05%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>19,53%</t>
+          <t>19,57%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,19; 18,96</t>
+          <t>11,22; 19,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,82; 23,25</t>
+          <t>15,87; 23,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,77; 20,23</t>
+          <t>14,76; 20,24</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>31,68%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>10,99%</t>
+          <t>10,67%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,69%</t>
+          <t>32,83%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>31,7%</t>
+          <t>25,66%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,66%</t>
+          <t>23,84%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>27,82; 35,66</t>
+          <t>21,13; 30,61</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>7,18; 16,78</t>
+          <t>6,9; 15,71</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,12; 35,56</t>
+          <t>21,52; 30,35</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,92; 32,55</t>
+          <t>18,69; 61,37</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,0; 34,6</t>
+          <t>22,66; 29,3</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 23,94</t>
+          <t>15,07; 46,81</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,1%</t>
+          <t>5,08%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>5,7%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>5,44%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,91; 9,39</t>
+          <t>2,97; 9,2</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,47; 9,15</t>
+          <t>2,58; 7,99</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,81; 7,77</t>
+          <t>3,27; 7,26</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>11,83%</t>
+          <t>11,9%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>15,2%</t>
+          <t>15,22%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>13,51%</t>
+          <t>13,52%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,72; 16,34</t>
+          <t>8,74; 16,32</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,97; 19,21</t>
+          <t>11,98; 19,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,16; 16,26</t>
+          <t>11,12; 16,21</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>12,37%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>10,69%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>12,38%</t>
+          <t>11,4%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,77; 15,88</t>
+          <t>9,54; 15,82</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>6,77; 15,3</t>
+          <t>4,47; 15,05</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>9,49; 14,53</t>
+          <t>7,42; 14,0</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>18,84%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>22,4%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>20,53%</t>
+          <t>18,12%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,98</t>
+          <t>6,67; 20,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,67; 25,56</t>
+          <t>19,88; 25,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>18,06; 22,76</t>
+          <t>11,26; 21,95</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>13,24%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>16,06%</t>
+          <t>16,67%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>14,73%</t>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>11,89; 14,57</t>
+          <t>9,69; 13,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>14,19; 17,63</t>
+          <t>13,98; 22,33</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>13,73; 15,91</t>
+          <t>12,74; 17,43</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P71_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>7,42; 15,17</t>
+          <t>7,15; 14,9</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33,9; 45,57</t>
+          <t>33,72; 45,3</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>31,13; 43,11</t>
+          <t>30,96; 42,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 7,98</t>
+          <t>3,12; 8,06</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 19,96</t>
+          <t>10,38; 19,42</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>33,58; 45,98</t>
+          <t>33,54; 45,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>26,31; 37,37</t>
+          <t>26,24; 37,3</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>6,31; 15,57</t>
+          <t>6,15; 15,21</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>10,15; 16,27</t>
+          <t>9,84; 15,95</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,6; 43,96</t>
+          <t>35,53; 43,87</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>30,12; 38,57</t>
+          <t>30,46; 38,18</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,23; 10,28</t>
+          <t>5,26; 9,73</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>21,04; 28,86</t>
+          <t>20,94; 28,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>48,99; 58,1</t>
+          <t>49,11; 58,5</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>36,1; 45,15</t>
+          <t>35,65; 44,91</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,56; 17,12</t>
+          <t>9,18; 17,02</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,23; 39,62</t>
+          <t>30,41; 39,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>51,34; 60,49</t>
+          <t>51,34; 60,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>37,6; 46,3</t>
+          <t>37,23; 46,28</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,13; 16,76</t>
+          <t>11,2; 16,61</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,91; 32,84</t>
+          <t>27,17; 33,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>51,37; 58,09</t>
+          <t>51,55; 57,89</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>37,71; 44,34</t>
+          <t>38,11; 44,33</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>11,3; 15,75</t>
+          <t>11,16; 15,79</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>12,3; 20,8</t>
+          <t>12,41; 21,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>12,15; 20,76</t>
+          <t>12,2; 20,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>20,01; 29,2</t>
+          <t>19,88; 29,66</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>11,22; 19,15</t>
+          <t>11,13; 19,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>20,89; 29,98</t>
+          <t>21,54; 31,05</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,68; 18,52</t>
+          <t>10,73; 18,72</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>27,72; 38,09</t>
+          <t>27,32; 37,83</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 23,3</t>
+          <t>16,03; 23,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,11; 24,32</t>
+          <t>18,04; 24,61</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12,6; 18,1</t>
+          <t>12,32; 18,04</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>25,29; 32,18</t>
+          <t>25,24; 32,07</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,76; 20,24</t>
+          <t>15,05; 20,61</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,63; 15,69</t>
+          <t>9,11; 15,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>21,13; 30,61</t>
+          <t>20,68; 30,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>25,6; 35,5</t>
+          <t>25,51; 35,38</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>6,9; 15,71</t>
+          <t>7,38; 15,88</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,85; 27,39</t>
+          <t>18,7; 27,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>21,52; 30,35</t>
+          <t>21,53; 30,45</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>33,0; 43,64</t>
+          <t>33,74; 43,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,69; 61,37</t>
+          <t>18,86; 58,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,9; 20,55</t>
+          <t>14,9; 20,08</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>22,66; 29,3</t>
+          <t>22,44; 28,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>30,91; 38,12</t>
+          <t>30,89; 38,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>15,07; 46,81</t>
+          <t>14,89; 47,06</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,54; 20,16</t>
+          <t>10,4; 20,54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>27,46; 41,3</t>
+          <t>27,43; 40,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>54,39; 68,29</t>
+          <t>54,31; 67,96</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,97; 9,2</t>
+          <t>2,84; 8,68</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,96; 27,81</t>
+          <t>15,92; 28,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>29,69; 42,96</t>
+          <t>29,65; 42,74</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>60,18; 72,71</t>
+          <t>59,85; 72,28</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,99</t>
+          <t>2,7; 7,78</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,41; 22,0</t>
+          <t>14,37; 22,06</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>30,38; 39,85</t>
+          <t>30,37; 39,34</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>59,48; 68,66</t>
+          <t>59,28; 68,23</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>3,27; 7,26</t>
+          <t>3,26; 7,14</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>16,0; 26,27</t>
+          <t>15,83; 25,44</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>12,29; 21,32</t>
+          <t>12,44; 21,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>13,49; 23,81</t>
+          <t>14,24; 24,03</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>8,74; 16,32</t>
+          <t>8,46; 16,08</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,65; 37,74</t>
+          <t>26,88; 37,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>11,17; 20,58</t>
+          <t>11,01; 19,85</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,15; 23,48</t>
+          <t>13,98; 23,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>11,98; 19,23</t>
+          <t>11,87; 18,79</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>22,68; 30,14</t>
+          <t>22,61; 30,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>13,05; 19,44</t>
+          <t>12,72; 19,15</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>15,17; 22,14</t>
+          <t>15,24; 21,89</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>11,12; 16,21</t>
+          <t>11,17; 16,34</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>17,03; 23,61</t>
+          <t>17,06; 23,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,03; 24,89</t>
+          <t>18,29; 24,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,92; 34,4</t>
+          <t>26,81; 34,58</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>9,54; 15,82</t>
+          <t>9,45; 16,02</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>31,05; 38,59</t>
+          <t>30,47; 38,52</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>20,67; 27,27</t>
+          <t>20,46; 27,11</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>29,96; 37,29</t>
+          <t>29,6; 36,94</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>4,47; 15,05</t>
+          <t>5,69; 15,04</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>25,09; 30,32</t>
+          <t>25,25; 30,6</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,2; 25,01</t>
+          <t>20,11; 24,91</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>29,34; 34,58</t>
+          <t>29,29; 34,6</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>7,42; 14,0</t>
+          <t>7,03; 13,91</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>15,5; 21,37</t>
+          <t>15,98; 21,6</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>29,47; 36,57</t>
+          <t>29,74; 36,5</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>29,6; 36,6</t>
+          <t>29,8; 36,63</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>6,67; 20,95</t>
+          <t>6,79; 20,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>22,58; 29,06</t>
+          <t>22,34; 28,89</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>30,89; 37,62</t>
+          <t>31,16; 37,92</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>29,48; 36,06</t>
+          <t>29,3; 36,1</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>19,88; 25,59</t>
+          <t>19,7; 25,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>19,96; 24,33</t>
+          <t>19,75; 24,22</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>31,07; 35,92</t>
+          <t>31,16; 35,9</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>30,63; 35,52</t>
+          <t>30,25; 35,36</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>11,26; 21,95</t>
+          <t>11,33; 22,0</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>16,71; 19,44</t>
+          <t>16,6; 19,4</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29,01; 32,17</t>
+          <t>29,1; 32,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>31,84; 35,09</t>
+          <t>31,94; 35,14</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9,69; 13,64</t>
+          <t>9,65; 13,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,32; 29,4</t>
+          <t>26,34; 29,49</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>29,96; 33,26</t>
+          <t>29,96; 33,27</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,08; 37,42</t>
+          <t>34,14; 37,32</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>13,98; 22,33</t>
+          <t>14,22; 22,23</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,11</t>
+          <t>21,85; 23,98</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>29,98; 32,31</t>
+          <t>29,95; 32,27</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>33,44; 35,81</t>
+          <t>33,49; 35,86</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>12,74; 17,43</t>
+          <t>12,82; 17,44</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que llega a fin de mes con dificultad o mucha dificultad</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>28724</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>116228</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>108682</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>15652</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>38368</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>113277</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>89961</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26835</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>67093</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>229506</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>198644</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>42487</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>19327; 40256</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>99400; 133507</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>90701; 124652</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>9678; 24990</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>26766; 50057</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>95635; 130422</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>75225; 106934</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>17804; 44040</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>51928; 84194</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>206008; 254422</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>176592; 221346</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>31556; 58347</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>119278</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>268621</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>200673</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>65908</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>171990</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>293353</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>218366</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>70402</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>291268</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>561974</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>419039</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>136310</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>101527; 139406</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>246292; 293409</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>177531; 223644</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>46876; 86922</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>149090; 192731</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>268315; 315116</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>194020; 241221</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>57489; 85259</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>264910; 322232</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>527991; 592843</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>388422; 451815</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>114271; 161711</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>50759</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>51180</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>75977</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>47266</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>83966</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48419</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>109069</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>67289</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>134725</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>99599</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>185046</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>114555</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>38887; 65769</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>39419; 65540</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>62182; 92769</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>34959; 62434</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>70836; 102111</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>36474; 63638</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>91212; 126298</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>55110; 79681</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>115813; 158038</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>81663; 119593</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>163224; 207412</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>98993; 135613</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>42984</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>94949</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>111927</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>31363</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>85296</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>99047</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>149727</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>141495</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>128280</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>193997</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>261655</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>172859</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>32515; 56426</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>76904; 112688</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>94122; 130518</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>21694; 46684</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>69168; 102075</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>82722; 116999</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>130355; 167948</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>81299; 253604</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>108277; 145894</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>169628; 217348</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>233324; 288019</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>107956; 341211</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>29677</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>71179</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>128077</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>9061</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>42462</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>79297</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>144377</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>12941</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>72139</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>150476</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>272454</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>22002</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>20772; 41029</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>57784; 86161</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>113652; 142212</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>5062; 15475</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>32030; 56896</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>65109; 93855</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>130149; 157170</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6909; 19952</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>57607; 88460</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>130673; 169252</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>252965; 291136</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>14147; 31025</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>55048</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>44978</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>48026</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>32092</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>88196</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>42469</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>50246</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>39041</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>143245</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>87447</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>98272</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>71133</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>42545; 68386</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>33971; 59141</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>37055; 62503</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>22813; 43355</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>73630; 103611</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>30728; 55379</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>38181; 64548</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>30470; 48202</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>122726; 163691</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>70236; 105700</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>81263; 116732</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>58765; 85991</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>122301</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>141382</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>200058</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>75852</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>216767</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>164260</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>229653</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>89830</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>339068</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>305642</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>429711</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>165682</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>103114; 143373</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>120971; 163022</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>175716; 226689</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>57969; 98261</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>191167; 241645</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>141943; 188088</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>204351; 254996</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>47795; 126331</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>311090; 376950</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>272512; 337591</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>394216; 465660</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>102106; 202122</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>493</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>135370</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>255417</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>254576</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>137204</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>195287</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>279806</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>268162</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>159735</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>330658</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>535223</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>522738</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>296939</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>117064; 158282</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>229855; 282123</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>229365; 281964</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>62833; 194011</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>171035; 221208</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>254949; 310326</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>239585; 295174</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>140436; 182445</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>296011; 362881</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>495733; 571273</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>480242; 561300</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>185621; 360613</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>574</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>978</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1066</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>455</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>885</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>1188</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>861</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>1459</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2254</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>1316</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>584141</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>1043935</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1127997</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>414398</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>922333</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>1119928</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>1259561</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>607568</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>1506475</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>2163863</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>2387558</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>1021966</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>536405; 626782</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>992066; 1098336</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1075363; 1183427</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>329674; 465813</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>873035; 977713</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>1061306; 1178750</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>1203999; 1316227</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>518264; 809900</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>1429935; 1569869</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>2081858; 2243353</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>2308918; 2472259</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>904865; 1231268</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>